--- a/experiments/dbscan-ajk/instructor-large/0.1/prediction.xlsx
+++ b/experiments/dbscan-ajk/instructor-large/0.1/prediction.xlsx
@@ -468,27 +468,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Abnormal compass function or GPS signal detected. Aircraft switched to ATTI mode</t>
+          <t>AE Locked. Metering disabled</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Ended: Aircraft is entering a restricted area</t>
+          <t>APAS has been enabled</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Ended: Cannot find subject</t>
+          <t>API Automatic Return Home</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -498,7 +498,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Ended: Control Signal Timeout (RC)</t>
+          <t>API Automatic Takeoff</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Paused</t>
+          <t>Abnormal compass function or GPS signal detected. Aircraft switched to ATTI mode</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -518,27 +518,27 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Stopped Aircraft Entering Restricted Area</t>
+          <t>Accelerator is Over Range</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Advanced RTH Image Transmission Recovered. Aircraft is returning home</t>
+          <t>Account not logged in. Flight altitude and distance restricted to nnn and nnn. Check and log in</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Aircraft antenna satellite signal searching error. Fly with caution</t>
+          <t>ActiveTrack Flight Ended: Aircraft is entering a restricted area</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -548,7 +548,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles. Fly with caution</t>
+          <t>ActiveTrack Flight Ended: Cannot find subject</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -558,7 +558,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Aircraft battery level low. Return to home promptly</t>
+          <t>ActiveTrack Flight Ended: Control Signal Timeout (RC)</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -568,7 +568,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Aircraft close to Home Point. go home shifts to landing.</t>
+          <t>ActiveTrack Flight Paused</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -578,7 +578,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Aircraft Core Board Overheated</t>
+          <t>ActiveTrack Flight Stopped Aircraft Entering Restricted Area</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -588,7 +588,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Aircraft exceeded distance limit and has exited Hyperlapse mode</t>
+          <t>Advanced RTH Image Transmission Recovered. Aircraft is returning home</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -598,7 +598,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Aircraft flight control locked</t>
+          <t>AirSense communication error. Unable to display nearby manned aircraft and anti-collision warnings. Fly with caution</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -608,47 +608,47 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Aircraft flight control obtained by remote controller A</t>
+          <t>Aircraft ActiveTrack available at max speed. Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Aircraft flight control obtained by remote controller B</t>
+          <t>Aircraft ActiveTrack available at max speed. When exceeding nnn, Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Aircraft flight control obtained by remote controller UNKNOWN</t>
+          <t>Aircraft ActiveTrack max speed of nnn and Obstacle Avoidance functions normally</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Aircraft flight control unlocked</t>
+          <t>Aircraft ActiveTrack max speed of nnn. Left and right Obstacle Sensing systems are available</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Aircraft GPS interference. Aircraft unable to fly stably. Land or return to home promptly</t>
+          <t>Aircraft Core Board Overheated</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -658,7 +658,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Aircraft GPS signal too weak. Home Point not updated</t>
+          <t>Aircraft GPS interference. Aircraft unable to fly stably. Land or return to home promptly</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -668,7 +668,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Aircraft in Altitude Zone. Max altitude set to nnn</t>
+          <t>Aircraft GPS signal too weak. Home Point not updated</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -678,7 +678,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aircraft in Attitude mode. Unable to hover. Fly with caution </t>
+          <t>Aircraft antenna satellite signal searching error. Fly with caution</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -688,7 +688,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Aircraft in Authorization Zone. Unable to take off before unlocking</t>
+          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles. Fly with caution</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -698,7 +698,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Aircraft in high interference environment. Fly with caution</t>
+          <t>Aircraft battery level low. Return to home promptly</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -708,7 +708,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Aircraft in high interference environment. Manually adjust flight route or return to home</t>
+          <t>Aircraft close to Home Point. go home shifts to landing.</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -718,17 +718,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zone. Unable to take off. Check map to find Recommended Zones</t>
+          <t>Aircraft entered Fixed-Wing Mode. Current flight speed is nnn. Press C2 to exit</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zones. Check map to find Recommended Zones</t>
+          <t>Aircraft exceeded distance limit and has exited Hyperlapse mode</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -738,7 +738,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Aircraft is close to Home Point. Return-to-Home Mode is now Auto Landing Mode.</t>
+          <t>Aircraft flight control locked</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -748,7 +748,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Aircraft is close to the Home Point. Initiating Return to Home will now trigger Auto Landing.</t>
+          <t>Aircraft flight control obtained by remote controller A</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -758,7 +758,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Aircraft is entering a restricted area</t>
+          <t>Aircraft flight control obtained by remote controller B</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -768,7 +768,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Aircraft is flying back to the start point</t>
+          <t>Aircraft flight control obtained by remote controller UNKNOWN</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -778,7 +778,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Aircraft is in Attitude mode, so that it will not hover. Please fly with caution.</t>
+          <t>Aircraft flight control unlocked</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -788,7 +788,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Aircraft is in Sport Mode. Exit this mode and try again</t>
+          <t>Aircraft in Altitude Zone. Max altitude set to nnn</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -798,7 +798,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Aircraft is in Tripod Mode. Exit this mode and try again</t>
+          <t xml:space="preserve">Aircraft in Attitude mode. Unable to hover. Fly with caution </t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -808,7 +808,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Aircraft is landing due to low voltage, which cannot be stopped. You can decelerate the descending speed and avoid obstacles using sticks</t>
+          <t>Aircraft in Authorization Zone. Unable to take off before unlocking</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -818,7 +818,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Aircraft is now following you.</t>
+          <t>Aircraft in Restricted Zone. Unable to take off. Check map to find Recommended Zones</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -828,7 +828,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
+          <t>Aircraft in Restricted Zones. Check map to find Recommended Zones</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -838,7 +838,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
+          <t>Aircraft in high interference environment. Fly with caution</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -848,7 +848,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
+          <t>Aircraft in high interference environment. Manually adjust flight route or return to home</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -858,7 +858,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 98ft. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
+          <t>Aircraft is close to Home Point. Return-to-Home Mode is now Auto Landing Mode.</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -868,7 +868,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
+          <t>Aircraft is close to the Home Point. Initiating Return to Home will now trigger Auto Landing.</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -878,7 +878,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. RTH Altitude is nnn. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
+          <t>Aircraft is entering a restricted area</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -888,7 +888,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the starting point</t>
+          <t>Aircraft is flying back to the start point</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -898,7 +898,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Aircraft is tilted, please keep the aircraft stationary and level before flight</t>
+          <t>Aircraft is in Attitude mode, so that it will not hover. Please fly with caution.</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -908,17 +908,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Aircraft is too far away</t>
+          <t>Aircraft is in QuickShot Mode. Ensure your enviornment is free of potential obstacles.</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Aircraft max power load reached. Decrease altitude and fly with caution. If this issue persists, land immediately</t>
+          <t>Aircraft is in Sport Mode. Exit this mode and try again</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -928,7 +928,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Aircraft not in flight. Vision system and obstacle sensing unavailable</t>
+          <t>Aircraft is in Tripod Mode. Exit this mode and try again</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -938,7 +938,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Aircraft out of Range</t>
+          <t>Aircraft is landing due to low voltage, which cannot be stopped. You can decelerate the descending speed and avoid obstacles using sticks</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -948,7 +948,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Aircraft pitch angle too large. Ensure aircraft is level before taking off</t>
+          <t>Aircraft is now following you.</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -958,7 +958,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Aircraft power insufficient. Fly with caution</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -968,7 +968,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Aircraft processor chip overheated. Power off aircraft and wait for temperature to return to normal</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -978,7 +978,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Aircraft processor overheated. Automatically returning to home</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -988,7 +988,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Aircraft propulsion system error. Forced landing. Manually control the aircraft and land in an open area</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 98ft. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -998,7 +998,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Aircraft switched to ATTI mode</t>
+          <t>Aircraft is returning to the Home Point. RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1008,7 +1008,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Aircraft takeoff altitude error. Restart aircraft</t>
+          <t>Aircraft is returning to the Home Point. RTH Altitude is nnn. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1018,7 +1018,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Aircraft too Far. Cannot enter Follow Me Mode</t>
+          <t>Aircraft is returning to the starting point</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -1028,7 +1028,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
+          <t>Aircraft is tilted, please keep the aircraft stationary and level before flight</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -1038,7 +1038,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Aircraft will automatically descend in nnn</t>
+          <t>Aircraft is too far away</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1048,7 +1048,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Aircraft will not enter S-mode if powered on with the remote controller set to S-mode. Please switch to Normal mode, then back to S-mode to enable it</t>
+          <t>Aircraft max power load reached. Decrease altitude and fly with caution. If this issue persists, land immediately</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1058,7 +1058,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>AirSense communication error. Unable to display nearby manned aircraft and anti-collision warnings. Fly with caution</t>
+          <t>Aircraft not in flight. Vision system and obstacle sensing unavailable</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -1068,17 +1068,17 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Altitude above the takeoff point exceeds nnn. Always fly in compliance with altitude limitations</t>
+          <t>Aircraft not linked to phone number. Flight range restricted. Check and link phone number</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Altitude Less than nnn. Cannot enable Follow Me Mode</t>
+          <t>Aircraft out of Range</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -1088,7 +1088,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Altitude Zone nnn</t>
+          <t>Aircraft pitch angle too large. Ensure aircraft is level before taking off</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -1098,7 +1098,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak.</t>
+          <t>Aircraft power insufficient. Fly with caution</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -1108,7 +1108,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Ambient light too low. Vision system and obstacle sensing unavailable. Fly with caution</t>
+          <t>Aircraft processor chip overheated. Power off aircraft and wait for temperature to return to normal</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -1118,7 +1118,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak</t>
+          <t>Aircraft processor overheated. Automatically returning to home</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1128,7 +1128,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak, Backward obstacle sensing is unavailable. please ensure safety during the flight</t>
+          <t>Aircraft propulsion system error. Forced landing. Manually control the aircraft and land in an open area</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -1138,17 +1138,17 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak, Forward obstacle sensing is unavailable. please ensure safety during the flight</t>
+          <t>Aircraft settings updated to comply with national regulations</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak, Vision Positioning obstacle sensing is unavailable. please ensure safety during the flight</t>
+          <t>Aircraft switched to ATTI mode</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -1158,7 +1158,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Another aircraft is dangerously close, please descend to a safer altitude</t>
+          <t>Aircraft takeoff altitude error. Restart aircraft</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -1168,7 +1168,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Another aircraft is nearby. Another aircraft is approaching. Descend as soon as possible</t>
+          <t>Aircraft too Far. Cannot enter Follow Me Mode</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -1178,7 +1178,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Another aircraft is nearby. Fly with caution</t>
+          <t>Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -1188,7 +1188,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>API Automatic Return Home</t>
+          <t>Aircraft will automatically descend in nnn</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -1198,7 +1198,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>API Automatic Takeoff</t>
+          <t>Aircraft will not enter S-mode if powered on with the remote controller set to S-mode. Please switch to Normal mode, then back to S-mode to enable it</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -1208,7 +1208,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Approaching a No-Fly Zone. RTH may be affected. Fly with caution</t>
+          <t>Altitude Less than nnn. Cannot enable Follow Me Mode</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -1218,7 +1218,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Attitude is too large.</t>
+          <t>Altitude Zone nnn</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -1228,7 +1228,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Attitude is too large. Backward Obstacle Sensing is not functioning</t>
+          <t>Altitude above the takeoff point exceeds nnn. Always fly in compliance with altitude limitations</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -1238,7 +1238,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Attitude is too large. Backward obstacle sensing is unavailable</t>
+          <t>Ambient Light is too weak.</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -1248,7 +1248,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Attitude is too large. Forward obstacle sensing is unavailable</t>
+          <t>Ambient Light too Weak</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -1258,7 +1258,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Attitude is too large. Backward Obstacle Sensing is not functioning.</t>
+          <t>Ambient Light too Weak, Backward obstacle sensing is unavailable. please ensure safety during the flight</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -1268,7 +1268,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Auto Landing in nnn(s)</t>
+          <t>Ambient Light too Weak, Forward obstacle sensing is unavailable. please ensure safety during the flight</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -1278,7 +1278,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Auto landing initiated</t>
+          <t>Ambient Light too Weak, Vision Positioning obstacle sensing is unavailable. please ensure safety during the flight</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -1288,7 +1288,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Away and Follow in progress.</t>
+          <t>Ambient light too low. Vision system and obstacle sensing unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -1298,7 +1298,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
+          <t>Another aircraft is dangerously close, please descend to a safer altitude</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -1308,7 +1308,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning.</t>
+          <t>Another aircraft is nearby. Another aircraft is approaching. Descend as soon as possible</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -1318,7 +1318,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
+          <t>Another aircraft is nearby. Fly with caution</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -1328,17 +1328,17 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Backward sensor(s) blocked. Obstacle avoidance unavailable. Fly with caution</t>
+          <t>Approaching NFZ or pre-set distance limit of (nnn). Revise Flight Route</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Barometer initialization failed. Restart aircraft</t>
+          <t>Approaching a No-Fly Zone. RTH may be affected. Fly with caution</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -1348,57 +1348,57 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Battery Alert Battery installation error. Please check the batteries are inserted correctly</t>
+          <t>Arrived at End Point</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Battery cell broken, please replace the battery</t>
+          <t>Arrived at Start Point. Starting Waypoint Mission</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Battery cells undervoltage</t>
+          <t>Arrived at destination</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Battery communication malfunction. Reinstall battery. If the issue persists, replace battery</t>
+          <t>At Least Two Waypoints Required</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Battery error. Aircraft returning to home automatically</t>
+          <t>At least two Waypoints are needed</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Battery installed incorrectly. Detach battery and reinstall it</t>
+          <t>Attitude is too large.</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -1408,7 +1408,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Battery level low. Charge battery</t>
+          <t>Attitude is too large. Backward Obstacle Sensing is not functioning</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -1418,7 +1418,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Battery nnn requires maintenance</t>
+          <t>Attitude is too large. Backward obstacle sensing is unavailable</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -1428,7 +1428,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Battery not installed properly. Return to home immediately. Check and re-install battery</t>
+          <t>Attitude is too large. Forward obstacle sensing is unavailable</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -1438,7 +1438,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Battery overheating. Stop flying and wait for battery temperature to return to normal</t>
+          <t>Attitude is too large. Backward Obstacle Sensing is not functioning.</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -1448,7 +1448,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Battery power limit will automatically reduce the aircraft's mobility to ensure flight safety</t>
+          <t>Auto Landing in nnn(s)</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -1458,7 +1458,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Battery power low. Check battery status and charge or warm up battery</t>
+          <t>Auto landing initiated</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -1468,37 +1468,37 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Battery power restricted. Aircraft performance decreased to ensure flight safety. Return to home promptly</t>
+          <t>Auxiliary Bottom Light set to automatic mode</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Battery Signal Error. Check battery connection.</t>
+          <t>Auxiliary Bottom Light turned off</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Battery temperature is below 15 degrees Celsius. Warm up the battery temperature to above 25 degree Celsius to ensure a safe flight.</t>
+          <t>Auxiliary Bottom Light turned on</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Battery temperature too low. Fly with caution</t>
+          <t>Away and Follow in progress.</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -1508,7 +1508,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Battery Voltage Difference too large. Check Battery Status</t>
+          <t>Backward Obstacle Sensing is not functioning.</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -1518,7 +1518,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Battery: Battery Error. Return home and land soon. View the checklist after landing</t>
+          <t>Backward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -1528,7 +1528,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Battery: Connection Error</t>
+          <t>Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -1538,7 +1538,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Battery: Low Voltage Protection</t>
+          <t>Backward sensor(s) blocked. Obstacle avoidance unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -1548,17 +1548,17 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Battery: Overcurrent During Discharge</t>
+          <t>Barometer Dead in Air</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Camera error. AI Spot-Check failed. Restart camera</t>
+          <t>Barometer initialization failed. Restart aircraft</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -1568,7 +1568,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Camera Error. Solution: Restart the aircraft, if the problem persists, contact DJI Support</t>
+          <t>Battery Alert Battery installation error. Please check the batteries are inserted correctly</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -1578,7 +1578,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Camera not calibrated. Image quality affected. Contact DJI Support for assistance</t>
+          <t>Battery Signal Error. Check battery connection.</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -1588,7 +1588,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Camera RCAM not connected. Image quality affected. Contact DJI Support for assistance</t>
+          <t>Battery Voltage Difference too large. Check Battery Status</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -1598,7 +1598,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Camera sensor error Hardware malfunction: Contact DJI Support to arrange for repairs</t>
+          <t>Battery cell broken, please replace the battery</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -1608,7 +1608,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Camera Settings ActiveTrack Optimized</t>
+          <t>Battery cells undervoltage</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -1618,7 +1618,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Camera Settings Adjusted</t>
+          <t>Battery communication malfunction. Reinstall battery. If the issue persists, replace battery</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -1628,7 +1628,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Camera Settings Adjusted to ActiveTrack</t>
+          <t>Battery error. Aircraft returning to home automatically</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -1638,7 +1638,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Camera storage full</t>
+          <t>Battery installed incorrectly. Detach battery and reinstall it</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -1648,7 +1648,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Cancel Landing Failed</t>
+          <t>Battery level low. Charge battery</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -1658,7 +1658,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Cancel Return-to-Home Failed</t>
+          <t>Battery nnn requires maintenance</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -1668,7 +1668,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Cannot change current flight mode. Enable Multiple Flight Modes in Settings menu to change.</t>
+          <t>Battery not installed properly. Return to home immediately. Check and re-install battery</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -1678,7 +1678,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Cannot enable Intelligent Flight Mode: Low Battery</t>
+          <t>Battery overheating. Stop flying and wait for battery temperature to return to normal</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -1688,7 +1688,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Cannot enter ActiveTrack. Ambient Light is too weak</t>
+          <t>Battery power limit will automatically reduce the aircraft's mobility to ensure flight safety</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -1698,7 +1698,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Cannot Enter TapFly Cannot fly in that direction</t>
+          <t>Battery power low. Check battery status and charge or warm up battery</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -1708,7 +1708,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Cannot enter TapFly Mode: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
+          <t>Battery power restricted. Aircraft performance decreased to ensure flight safety. Return to home promptly</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -1718,7 +1718,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Cannot enter the selected flight mode. Try again later.</t>
+          <t>Battery temperature is below 15 degrees Celsius. Warm up the battery temperature to above 25 degree Celsius to ensure a safe flight.</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -1728,7 +1728,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Cannot Identify Subject</t>
+          <t>Battery temperature too low. Fly with caution</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -1738,7 +1738,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Cannot start Return to Home due to weak GPS signal</t>
+          <t>Battery: Battery Error. Return home and land soon. View the checklist after landing</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -1748,7 +1748,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes</t>
+          <t>Battery: Connection Error</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -1758,7 +1758,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes.</t>
+          <t>Battery: Low Voltage Protection</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -1768,7 +1768,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Cannot takeoff in a no-fly zone</t>
+          <t>Battery: Overcurrent During Discharge</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -1778,67 +1778,67 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Cannot Takeoff in Travel Mode. Exit Travel Mode.</t>
+          <t>Braking now! No use to move the stick right. Avoid the obstacle</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Cannot takeoff. Ensure the aircraft battery is properly connected</t>
+          <t>Braking now! Return sticks to midpoints first.</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Cannot Track Subject. Cannot Identify Subject</t>
+          <t>Braking now. Return sticks to midpoints, then continue flying.</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Cannot track subject: Forward Obstacle Sensing not Responding</t>
+          <t>Cache Space Full</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Cannot track subject: Gimbal Tilt too Large</t>
+          <t>Calibration subject is too close. Recalibrate using a subject that is farther away</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Cannot track subject: No image. Please retry</t>
+          <t>Calibration target not far away enough. Please calibrate using infinity</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Cannot track subject: Subject too Large. Move Away and retry</t>
+          <t>Camera Error. Solution: Restart the aircraft, if the problem persists, contact DJI Support</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -1848,7 +1848,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Cannot track subject: Subject too Small. Get Closer and retry</t>
+          <t>Camera RCAM not connected. Image quality affected. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -1858,7 +1858,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Capture Failed Cannot enter Pano mode</t>
+          <t>Camera Settings ActiveTrack Optimized</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -1868,7 +1868,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Capture Failed Stick movement detected. Panorama has stopped</t>
+          <t>Camera Settings Adjusted</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -1878,7 +1878,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Capture Failed. Distance limit exceeded. Cannot shoot panorama</t>
+          <t>Camera Settings Adjusted to ActiveTrack</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -1888,17 +1888,17 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Capture Failed. Insufficient storage space. Cannot shoot panorama</t>
+          <t>Camera busy, cannot enter playback</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Capture Failed. The aircraft is moving. Cannot shoot panorama</t>
+          <t>Camera error. AI Spot-Check failed. Restart camera</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -1908,7 +1908,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Capture Failed. The gimbal is moving. Cannot shoot panorama</t>
+          <t>Camera not calibrated. Image quality affected. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -1918,7 +1918,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Check whether propellers are installed correctly. If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist. Contact DJI Support for assistance</t>
+          <t>Camera sensor error Hardware malfunction: Contact DJI Support to arrange for repairs</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -1928,7 +1928,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Check whether the propellers are attached to the correct motors based on their markings. Incorrect installation will cause the aircraft to roll over during takeoff</t>
+          <t>Camera storage full</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -1938,7 +1938,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Command Failed</t>
+          <t>Cancel Landing Failed</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -1948,7 +1948,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Command Timeout</t>
+          <t>Cancel Return-to-Home Failed</t>
         </is>
       </c>
       <c r="B152" t="n">
@@ -1958,7 +1958,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before attempting flight. 2. Calibrate Compass Before Takeoff</t>
+          <t>Cannot Enter TapFly Cannot fly in that direction</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -1968,7 +1968,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Compass data error. Please contact DJI Support</t>
+          <t>Cannot Identify Subject</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -1978,7 +1978,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Compass direction is not the same with IMU</t>
+          <t>Cannot Takeoff in Travel Mode. Exit Travel Mode.</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -1988,7 +1988,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Compass Error</t>
+          <t>Cannot Track Subject. Cannot Identify Subject</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -1998,7 +1998,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Compass error Solution: Move away from ground magnetic interference</t>
+          <t>Cannot change current flight mode. Enable Multiple Flight Modes in Settings menu to change.</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -2008,7 +2008,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Compass error, calibration required</t>
+          <t>Cannot enable Intelligent Flight Mode: Low Battery</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -2018,7 +2018,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Compass Error. Compass data error. Please check the Compass installation and interference</t>
+          <t>Cannot enter ActiveTrack. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -2028,7 +2028,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Compass Error. Compass data error. Please contact DJI Support</t>
+          <t>Cannot enter TapFly Mode: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -2038,7 +2038,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Compass Error. Compass data error. Please contact DJI Support. Compass disconnected</t>
+          <t>Cannot enter the selected flight mode. Try again later.</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -2048,27 +2048,27 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Compass Error. Compass direction is not the same with IMU</t>
+          <t>Cannot exit ActiveTrack</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Compass Error. Compass disconnected</t>
+          <t>Cannot send ActiveTrack command</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Compass Error. Compass error Solution: Move away from ground magnetic interference</t>
+          <t>Cannot start Return to Home due to weak GPS signal</t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -2078,17 +2078,17 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Compass Error. Compass Error. Compass data error. Please contact DJI Support</t>
+          <t>Cannot start Self-Timer. Exposure time is too long</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Compass Error. Compass Error. Compass disconnected</t>
+          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -2098,7 +2098,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Compass Error. Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
+          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes.</t>
         </is>
       </c>
       <c r="B167" t="n">
@@ -2108,7 +2108,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Compass Error. Compass Redundancy Switch</t>
+          <t>Cannot takeoff in a no-fly zone</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -2118,7 +2118,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Compass error. Ensure there are no metal or magnetic objects near the aircraft and calibrate it before use</t>
+          <t>Cannot takeoff. Ensure the aircraft battery is properly connected</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -2128,7 +2128,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Compass Error. Exit P-GPS Mode</t>
+          <t>Cannot track subject: Forward Obstacle Sensing not Responding</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -2138,7 +2138,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Compass Error. Magnetic Filed Interference. Exit P-GPS Mode</t>
+          <t>Cannot track subject: Gimbal Tilt too Large</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -2148,7 +2148,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Compass initialization failed. Restart aircraft</t>
+          <t>Cannot track subject: No image. Please retry</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -2158,7 +2158,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
+          <t>Cannot track subject: Subject too Large. Move Away and retry</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -2168,7 +2168,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Compass Interference. Temp Max Altitude : 98ft</t>
+          <t>Cannot track subject: Subject too Small. Get Closer and retry</t>
         </is>
       </c>
       <c r="B174" t="n">
@@ -2178,7 +2178,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Compass Interference. Temp Max Altitude: nnn</t>
+          <t>Capture Failed Cannot enter Pano mode</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -2188,17 +2188,17 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Compass Redundancy Switch</t>
+          <t>Capture Failed Shooting interrupted</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Compass Stuck. Restart Aircraft. Contact DJI Support if this persists.</t>
+          <t>Capture Failed Stick movement detected. Panorama has stopped</t>
         </is>
       </c>
       <c r="B177" t="n">
@@ -2208,7 +2208,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Correcting Landing Position</t>
+          <t>Capture Failed. Distance limit exceeded. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -2218,7 +2218,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Critical Low Battery</t>
+          <t>Capture Failed. Insufficient storage space. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B179" t="n">
@@ -2228,17 +2228,17 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Critical low battery voltage</t>
+          <t>Capture Failed. Shooting is currently not permitted</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Critical low battery. Aircraft in Auto Power Off Protection. Forced landing in progress</t>
+          <t>Capture Failed. The aircraft is moving. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B181" t="n">
@@ -2248,7 +2248,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Critical low battery. Aircraft landing automatically</t>
+          <t>Capture Failed. The gimbal is moving. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B182" t="n">
@@ -2258,7 +2258,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Critical low battery. Aircraft returning to home</t>
+          <t>Check whether propellers are installed correctly. If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B183" t="n">
@@ -2268,7 +2268,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Critical low battery. Recharge promptly</t>
+          <t>Check whether the propellers are attached to the correct motors based on their markings. Incorrect installation will cause the aircraft to roll over during takeoff</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -2278,27 +2278,27 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Critical low battery. Return to home or land promptly</t>
+          <t>Color display in Liveview is enhanced. Videos and photos will still be shot in D-Log mode</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Critical low battery. Unable to take off. Recharge promptly</t>
+          <t>Color display in the Liveview has been enhanced. Videos and photos will still be shot in D-Log mode</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Critically low power. Aircraft is landing</t>
+          <t>Command Failed</t>
         </is>
       </c>
       <c r="B187" t="n">
@@ -2308,7 +2308,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Critically Low Power. Aircraft Landing</t>
+          <t>Command Timeout</t>
         </is>
       </c>
       <c r="B188" t="n">
@@ -2318,7 +2318,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Critically Low Power. Aircraft Landing. Throttle up to reduce the speed of descent and use sticks to avoid obstacles</t>
+          <t>Compass Error</t>
         </is>
       </c>
       <c r="B189" t="n">
@@ -2328,7 +2328,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Critically Low Voltage Warning. Aircraft will be forced to land</t>
+          <t>Compass Error. Compass Error. Compass data error. Please contact DJI Support</t>
         </is>
       </c>
       <c r="B190" t="n">
@@ -2338,7 +2338,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Critically Low Voltage Warning. Land as soon as possible, otherwise the battery will be damaged</t>
+          <t>Compass Error. Compass Error. Compass disconnected</t>
         </is>
       </c>
       <c r="B191" t="n">
@@ -2348,7 +2348,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Critically Low Voltage. Aircraft will land</t>
+          <t>Compass Error. Compass Redundancy Switch</t>
         </is>
       </c>
       <c r="B192" t="n">
@@ -2358,7 +2358,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Current elevation above nnn. Fly with caution</t>
+          <t>Compass Error. Compass data error. Please check the Compass installation and interference</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -2368,7 +2368,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Current RTH route will pass a No-Fly zone. Pay attention to the aircraft's position to avoid RTH failure.</t>
+          <t>Compass Error. Compass data error. Please contact DJI Support</t>
         </is>
       </c>
       <c r="B194" t="n">
@@ -2378,7 +2378,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Detecting subject</t>
+          <t>Compass Error. Compass data error. Please contact DJI Support. Compass disconnected</t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -2388,7 +2388,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Disable SD card read and write protection or change card</t>
+          <t>Compass Error. Compass direction is not the same with IMU</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -2398,7 +2398,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Distance limit enabled. Fly safely</t>
+          <t>Compass Error. Compass disconnected</t>
         </is>
       </c>
       <c r="B197" t="n">
@@ -2408,7 +2408,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Downlink data connection lost for nnn seconds</t>
+          <t>Compass Error. Compass error Solution: Move away from ground magnetic interference</t>
         </is>
       </c>
       <c r="B198" t="n">
@@ -2418,7 +2418,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Downlink Lost.</t>
+          <t>Compass Error. Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
         </is>
       </c>
       <c r="B199" t="n">
@@ -2428,7 +2428,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 0.9s).</t>
+          <t>Compass Error. Exit P-GPS Mode</t>
         </is>
       </c>
       <c r="B200" t="n">
@@ -2438,7 +2438,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.1s).</t>
+          <t>Compass Error. Magnetic Filed Interference. Exit P-GPS Mode</t>
         </is>
       </c>
       <c r="B201" t="n">
@@ -2448,7 +2448,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.2s).</t>
+          <t>Compass Interference. Temp Max Altitude : 98ft</t>
         </is>
       </c>
       <c r="B202" t="n">
@@ -2458,7 +2458,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.4s).</t>
+          <t>Compass Interference. Temp Max Altitude: nnn</t>
         </is>
       </c>
       <c r="B203" t="n">
@@ -2468,7 +2468,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.5s).</t>
+          <t>Compass Redundancy Switch</t>
         </is>
       </c>
       <c r="B204" t="n">
@@ -2478,7 +2478,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.6s).</t>
+          <t>Compass Stuck. Restart Aircraft. Contact DJI Support if this persists.</t>
         </is>
       </c>
       <c r="B205" t="n">
@@ -2488,7 +2488,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.7s).</t>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before attempting flight. 2. Calibrate Compass Before Takeoff</t>
         </is>
       </c>
       <c r="B206" t="n">
@@ -2498,7 +2498,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 11.3s).</t>
+          <t>Compass data error. Please contact DJI Support</t>
         </is>
       </c>
       <c r="B207" t="n">
@@ -2508,7 +2508,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 11s).</t>
+          <t>Compass direction is not the same with IMU</t>
         </is>
       </c>
       <c r="B208" t="n">
@@ -2518,7 +2518,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1s).</t>
+          <t>Compass error Solution: Move away from ground magnetic interference</t>
         </is>
       </c>
       <c r="B209" t="n">
@@ -2528,7 +2528,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.2s).</t>
+          <t>Compass error, calibration required</t>
         </is>
       </c>
       <c r="B210" t="n">
@@ -2538,7 +2538,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.3s).</t>
+          <t>Compass error. Ensure there are no metal or magnetic objects near the aircraft and calibrate it before use</t>
         </is>
       </c>
       <c r="B211" t="n">
@@ -2548,7 +2548,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.9s).</t>
+          <t>Compass initialization failed. Restart aircraft</t>
         </is>
       </c>
       <c r="B212" t="n">
@@ -2558,7 +2558,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 5.6s).</t>
+          <t>Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
         </is>
       </c>
       <c r="B213" t="n">
@@ -2568,7 +2568,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 5.8s).</t>
+          <t>Correcting Landing Position</t>
         </is>
       </c>
       <c r="B214" t="n">
@@ -2578,7 +2578,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Downward altitude sensor data error. Please contact DJI Support for help</t>
+          <t>Critical Low Battery</t>
         </is>
       </c>
       <c r="B215" t="n">
@@ -2588,7 +2588,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution</t>
+          <t>Critical low battery voltage</t>
         </is>
       </c>
       <c r="B216" t="n">
@@ -2598,7 +2598,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution. Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
+          <t>Critical low battery. Aircraft in Auto Power Off Protection. Forced landing in progress</t>
         </is>
       </c>
       <c r="B217" t="n">
@@ -2608,7 +2608,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Downward infrared sensor failure. Land as soon as possible</t>
+          <t>Critical low battery. Aircraft landing automatically</t>
         </is>
       </c>
       <c r="B218" t="n">
@@ -2618,7 +2618,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Downward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
+          <t>Critical low battery. Aircraft returning to home</t>
         </is>
       </c>
       <c r="B219" t="n">
@@ -2628,7 +2628,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Downward sensor error. Aircraft unstable at low altitude. Please fly with caution</t>
+          <t>Critical low battery. Recharge promptly</t>
         </is>
       </c>
       <c r="B220" t="n">
@@ -2638,7 +2638,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Downward vision sensor calibration error. Auto calibration in progress</t>
+          <t>Critical low battery. Return to home or land promptly</t>
         </is>
       </c>
       <c r="B221" t="n">
@@ -2648,7 +2648,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Downward vision sensor error. Contact DJI Support for assistance</t>
+          <t>Critical low battery. Unable to take off. Recharge promptly</t>
         </is>
       </c>
       <c r="B222" t="n">
@@ -2658,7 +2658,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Ensure control sticks are centered during takeoff</t>
+          <t>Critically Low Power. Aircraft Landing</t>
         </is>
       </c>
       <c r="B223" t="n">
@@ -2668,7 +2668,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Error: Course angle control error. Please ensure the propellers are installed on the correct motors</t>
+          <t>Critically Low Power. Aircraft Landing. Throttle up to reduce the speed of descent and use sticks to avoid obstacles</t>
         </is>
       </c>
       <c r="B224" t="n">
@@ -2678,7 +2678,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Excessive attitude angle detected, forward obstacle avoidance has stopped working</t>
+          <t>Critically Low Voltage Warning. Aircraft will be forced to land</t>
         </is>
       </c>
       <c r="B225" t="n">
@@ -2688,7 +2688,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Excessive gimbal vibration. Check whether gimbal can rotate freely</t>
+          <t>Critically Low Voltage Warning. Land as soon as possible, otherwise the battery will be damaged</t>
         </is>
       </c>
       <c r="B226" t="n">
@@ -2698,7 +2698,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Exit Backward Forward Downward Upward Sensing system, Ambient Light is too weak</t>
+          <t>Critically Low Voltage. Aircraft will land</t>
         </is>
       </c>
       <c r="B227" t="n">
@@ -2708,7 +2708,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Exited Hyperlapse mode</t>
+          <t>Critically low power. Aircraft is landing</t>
         </is>
       </c>
       <c r="B228" t="n">
@@ -2718,17 +2718,17 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Exiting GPS mode: Unknown Error</t>
+          <t>CrystalSky is too hot. Cool down the monitor to prevent overheating</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Extended flight distance detected. Always maintain visual line of sight unless otherwise authorized</t>
+          <t>Current RTH route will pass a No-Fly zone. Pay attention to the aircraft's position to avoid RTH failure.</t>
         </is>
       </c>
       <c r="B230" t="n">
@@ -2738,7 +2738,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Extra payload detected. Flight performance will be affected. Fly with caution</t>
+          <t>Current elevation above nnn. Fly with caution</t>
         </is>
       </c>
       <c r="B231" t="n">
@@ -2748,207 +2748,207 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Extra payload detected. Max altitude and distance set. Fly with caution</t>
+          <t>Data Recorder File Index is 12.</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Extra payload detected. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
+          <t>Data Recorder File Index is 13.</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Extra payload detected. Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
+          <t>Data Recorder File Index is 15.</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Extra payload detected. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
+          <t>Data Recorder File Index is 17.</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Failed to cancel landing</t>
+          <t>Data Recorder File Index is 18.</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Failed to cancel Return to Home</t>
+          <t>Data Recorder File Index is 19.</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing gear. Take care of your gimbal when landing</t>
+          <t>Data Recorder File Index is 2.</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Failed to take off. Check the USB connection with aircraft. Contact DJI Support if this error persists after restarting</t>
+          <t>Data Recorder File Index is 21.</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>File system error. Change SD card</t>
+          <t>Data Recorder File Index is 29.</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn. Aircraft may be in violation of local laws and regulations. Check and make sure you have obtained proper authorization to fly in this airspace</t>
+          <t>Data Recorder File Index is 3.</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn. May violate local policies and regulations. Ensure you have obtained proper airspace authorization</t>
+          <t>Data Recorder File Index is 30.</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Flight control mode error, cannot start recording QuickShot</t>
+          <t>Data Recorder File Index is 4.</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Flight distance may exceed line-of-sight. Fly with caution</t>
+          <t>Data Recorder File Index is 45.</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Flight Mode Set to Attitude</t>
+          <t>Data Recorder File Index is 46.</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Fly with caution and ensure the aircraft remains within your line of sight.</t>
+          <t>Data Recorder File Index is 5.</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Fly with caution. Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before</t>
+          <t>Data Recorder File Index is 57.</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning.</t>
+          <t>Data Recorder File Index is 65.</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
+          <t>Data Recorder File Index is 7.</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing not Responding</t>
+          <t>Data Recorder File Index is 8.</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing not Working.</t>
+          <t>Descending. Exited Visual Avoidance System</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Forward vision sensor calibration error. Auto calibration in progress</t>
+          <t>Detecting subject</t>
         </is>
       </c>
       <c r="B252" t="n">
@@ -2958,7 +2958,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Forward vision sensor error. Contact DJI Support for assistance</t>
+          <t>Disable SD card read and write protection or change card</t>
         </is>
       </c>
       <c r="B253" t="n">
@@ -2968,7 +2968,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone. Flight altitude restricted to nnn</t>
+          <t>Distance limit enabled. Fly safely</t>
         </is>
       </c>
       <c r="B254" t="n">
@@ -2978,7 +2978,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant). Fly with caution</t>
+          <t>Downlink Lost.</t>
         </is>
       </c>
       <c r="B255" t="n">
@@ -2988,7 +2988,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Gimbal calibrating</t>
+          <t>Downlink Restored (after 0m 0.9s).</t>
         </is>
       </c>
       <c r="B256" t="n">
@@ -2998,7 +2998,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Gimbal calibration error. Restart aircraft or contact DJI Support if the issue persists</t>
+          <t>Downlink Restored (after 0m 1.1s).</t>
         </is>
       </c>
       <c r="B257" t="n">
@@ -3008,7 +3008,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Gimbal IMU data error. Contact DJI Support for assistance</t>
+          <t>Downlink Restored (after 0m 1.2s).</t>
         </is>
       </c>
       <c r="B258" t="n">
@@ -3018,7 +3018,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Gimbal motor overloaded. Check whether gimbal can rotate freely</t>
+          <t>Downlink Restored (after 0m 1.4s).</t>
         </is>
       </c>
       <c r="B259" t="n">
@@ -3028,7 +3028,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Gimbal nnn pan axis endpoint reached</t>
+          <t>Downlink Restored (after 0m 1.5s).</t>
         </is>
       </c>
       <c r="B260" t="n">
@@ -3038,7 +3038,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Gimbal nnn pitch axis endpoint reached</t>
+          <t>Downlink Restored (after 0m 1.6s).</t>
         </is>
       </c>
       <c r="B261" t="n">
@@ -3048,7 +3048,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Gimbal nnn roll axis endpoint reached</t>
+          <t>Downlink Restored (after 0m 1.7s).</t>
         </is>
       </c>
       <c r="B262" t="n">
@@ -3058,7 +3058,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Gimbal Pitch Limit Reached.</t>
+          <t>Downlink Restored (after 0m 11.3s).</t>
         </is>
       </c>
       <c r="B263" t="n">
@@ -3068,7 +3068,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Gimbal Pitch Reached Movement Limit</t>
+          <t>Downlink Restored (after 0m 11s).</t>
         </is>
       </c>
       <c r="B264" t="n">
@@ -3078,7 +3078,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Gimbal Recenter</t>
+          <t>Downlink Restored (after 0m 1s).</t>
         </is>
       </c>
       <c r="B265" t="n">
@@ -3088,7 +3088,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Gimbal Roll Limit Reached.</t>
+          <t>Downlink Restored (after 0m 2.2s).</t>
         </is>
       </c>
       <c r="B266" t="n">
@@ -3098,7 +3098,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Gimbal stuck. Check whether gimbal lock is removed and ensure gimbal can rotate freely</t>
+          <t>Downlink Restored (after 0m 2.3s).</t>
         </is>
       </c>
       <c r="B267" t="n">
@@ -3108,7 +3108,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Gimbal Yaw Limit Reached</t>
+          <t>Downlink Restored (after 0m 2.9s).</t>
         </is>
       </c>
       <c r="B268" t="n">
@@ -3118,7 +3118,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>GPS module error. Restart aircraft</t>
+          <t>Downlink Restored (after 0m 5.6s).</t>
         </is>
       </c>
       <c r="B269" t="n">
@@ -3128,7 +3128,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>GPS Position Mismatch.</t>
+          <t>Downlink Restored (after 0m 5.8s).</t>
         </is>
       </c>
       <c r="B270" t="n">
@@ -3138,7 +3138,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>GPS signal low. Aircraft unable to auto hover and takeoff restricted. Move to environment with adequate light. Unlocking takeoff restrictions not recommended</t>
+          <t>Downlink data connection lost for nnn seconds</t>
         </is>
       </c>
       <c r="B271" t="n">
@@ -3148,7 +3148,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>GPS signal weak. Fly with caution. Aircraft in Altitude Zone. Max altitude set to nnn</t>
+          <t>Downward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B272" t="n">
@@ -3158,7 +3158,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>GPS signal weak. Hovering unstable. Fly with caution</t>
+          <t>Downward altitude sensor data error. Please contact DJI Support for help</t>
         </is>
       </c>
       <c r="B273" t="n">
@@ -3168,7 +3168,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>GPS signal weak. Positioning accuracy affected. Fly with caution</t>
+          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B274" t="n">
@@ -3178,7 +3178,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Gyroscope initialization failed. Restart aircraft</t>
+          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution. Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
         </is>
       </c>
       <c r="B275" t="n">
@@ -3188,7 +3188,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>High altitude. Aircraft braking distance increased and flight time decreased. Fly with caution</t>
+          <t>Downward infrared sensor failure. Land as soon as possible</t>
         </is>
       </c>
       <c r="B276" t="n">
@@ -3198,7 +3198,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution.</t>
+          <t>Downward sensor error. Aircraft unstable at low altitude. Please fly with caution</t>
         </is>
       </c>
       <c r="B277" t="n">
@@ -3208,7 +3208,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. Downlink Lost.</t>
+          <t>Downward vision sensor calibration error. Auto calibration in progress</t>
         </is>
       </c>
       <c r="B278" t="n">
@@ -3218,7 +3218,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. High wind velocity. Fly with caution and land in a safe place ASAP.</t>
+          <t>Downward vision sensor error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B279" t="n">
@@ -3228,47 +3228,47 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>High wind velocity. Fly with caution and land in a safe place ASAP.</t>
+          <t>Drag a box around or tap a target on screen. Then tap Go.</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>High wind velocity. Fly with caution.</t>
+          <t>Drone is Vibrating</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>High Wind Velocity: Fly with caution and ensure the aircraft remains within your line of sight</t>
+          <t>During Smart Track, you can control lens zoom within a certain limit</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>High-altitude flight, aircraft braking distance is extended, flight time is shortened. Fly with caution</t>
+          <t>EMMC is full</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Home Point Recorded, Return-to-Home Altitude : 98FT</t>
+          <t>Ensure control sticks are centered during takeoff</t>
         </is>
       </c>
       <c r="B284" t="n">
@@ -3278,17 +3278,17 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Home Point Recorded, Return-to-Home Altitude : 98FT.</t>
+          <t>Entered Cruise Control mode. Press C1 or C2 to exit</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Home Point Recorded.</t>
+          <t>Error: Course angle control error. Please ensure the propellers are installed on the correct motors</t>
         </is>
       </c>
       <c r="B286" t="n">
@@ -3298,7 +3298,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Home Point recorded. Return-to-Home Altitude : 98FT</t>
+          <t>Excessive attitude angle detected, forward obstacle avoidance has stopped working</t>
         </is>
       </c>
       <c r="B287" t="n">
@@ -3308,7 +3308,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Home Point recorded. Return-to-Home Altitude : 98FT.</t>
+          <t>Excessive gimbal vibration. Check whether gimbal can rotate freely</t>
         </is>
       </c>
       <c r="B288" t="n">
@@ -3318,17 +3318,17 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Home Point Recorded. RTH Altitude : 30m.</t>
+          <t>Executing waypoint mission</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Home Point Recorded. Taking off.</t>
+          <t>Exit Backward Forward Downward Upward Sensing system, Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B290" t="n">
@@ -3338,17 +3338,17 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Home Point Updated.</t>
+          <t>Exited Cruise Control mode</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Home Point updated. RTH altitude adjusted to nnn</t>
+          <t>Exited Hyperlapse mode</t>
         </is>
       </c>
       <c r="B292" t="n">
@@ -3358,17 +3358,17 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Image Transmission Recovered. Aircraft is returning home.</t>
+          <t>Exited Visual Avoidance System.</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Image transmission signal lost</t>
+          <t>Exiting GPS mode: Unknown Error</t>
         </is>
       </c>
       <c r="B294" t="n">
@@ -3378,7 +3378,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Impact detected. Aircraft stopped. Restart aircraft</t>
+          <t>Extended flight distance detected. Always maintain visual line of sight unless otherwise authorized</t>
         </is>
       </c>
       <c r="B295" t="n">
@@ -3388,7 +3388,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Impact detected. Restart aircraft</t>
+          <t>Extra payload detected. Flight performance will be affected. Fly with caution</t>
         </is>
       </c>
       <c r="B296" t="n">
@@ -3398,7 +3398,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>IMU calibration required. Calibrate IMU</t>
+          <t>Extra payload detected. Max altitude and distance set. Fly with caution</t>
         </is>
       </c>
       <c r="B297" t="n">
@@ -3408,7 +3408,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>IMU not calibrated. Calibrate IMU</t>
+          <t>Extra payload detected. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
         </is>
       </c>
       <c r="B298" t="n">
@@ -3418,7 +3418,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>In Flight.</t>
+          <t>Extra payload detected. Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
         </is>
       </c>
       <c r="B299" t="n">
@@ -3428,7 +3428,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Insufficient SD card space. Change card or delete files</t>
+          <t>Extra payload detected. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
         </is>
       </c>
       <c r="B300" t="n">
@@ -3438,7 +3438,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Intelligent Flight Modes have not been enabled. Enable this option in Main Controller Settings if needed.</t>
+          <t>Failed to cancel Return to Home</t>
         </is>
       </c>
       <c r="B301" t="n">
@@ -3448,7 +3448,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Landing Canceled.</t>
+          <t>Failed to cancel landing</t>
         </is>
       </c>
       <c r="B302" t="n">
@@ -3458,7 +3458,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Landing gear function restored</t>
+          <t>Failed to lower or pack up landing gear. Take care of your gimbal when landing</t>
         </is>
       </c>
       <c r="B303" t="n">
@@ -3468,7 +3468,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Landing Gear Lowered.</t>
+          <t>Failed to take off. Check the USB connection with aircraft. Contact DJI Support if this error persists after restarting</t>
         </is>
       </c>
       <c r="B304" t="n">
@@ -3478,7 +3478,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Landing gear lowered. Obstacle Avoidance Disabled.</t>
+          <t>File system error. Change SD card</t>
         </is>
       </c>
       <c r="B305" t="n">
@@ -3488,7 +3488,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Landing gear lowered. Obstacle Avoidance has been disabled.</t>
+          <t>Flight Mode Set to Attitude</t>
         </is>
       </c>
       <c r="B306" t="n">
@@ -3498,7 +3498,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Landing Gear Lowering.</t>
+          <t>Flight altitude exceeds nnn. Aircraft may be in violation of local laws and regulations. Check and make sure you have obtained proper authorization to fly in this airspace</t>
         </is>
       </c>
       <c r="B307" t="n">
@@ -3508,7 +3508,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Landing Gear Paused.</t>
+          <t>Flight altitude exceeds nnn. May violate local policies and regulations. Ensure you have obtained proper airspace authorization</t>
         </is>
       </c>
       <c r="B308" t="n">
@@ -3518,7 +3518,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Landing Gear Raised.</t>
+          <t>Flight control mode error, cannot start recording QuickShot</t>
         </is>
       </c>
       <c r="B309" t="n">
@@ -3528,7 +3528,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Landing Gear Raising.</t>
+          <t>Flight distance may exceed line-of-sight. Fly with caution</t>
         </is>
       </c>
       <c r="B310" t="n">
@@ -3538,17 +3538,17 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Landing Gear Raising. Home Point Recorded</t>
+          <t>Flight height too low</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Landing Protection Activated. Aircraft will decelerate during landing.</t>
+          <t>Fly with caution and ensure the aircraft remains within your line of sight.</t>
         </is>
       </c>
       <c r="B312" t="n">
@@ -3558,7 +3558,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Landing.</t>
+          <t>Fly with caution. Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before</t>
         </is>
       </c>
       <c r="B313" t="n">
@@ -3568,7 +3568,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Large Wind Velocity.</t>
+          <t>Forward Obstacle Sensing is not functioning.</t>
         </is>
       </c>
       <c r="B314" t="n">
@@ -3578,7 +3578,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Large Wind Velocity. Fly with caution.</t>
+          <t>Forward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B315" t="n">
@@ -3588,7 +3588,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Lighting environment too dark. Vision System unavailable. Fly with caution</t>
+          <t>Forward Obstacle Sensing not Responding</t>
         </is>
       </c>
       <c r="B316" t="n">
@@ -3598,7 +3598,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Lighting environment too dark. Visual positioning inaccurate. Fly with caution</t>
+          <t>Forward Obstacle Sensing not Working.</t>
         </is>
       </c>
       <c r="B317" t="n">
@@ -3608,7 +3608,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Locating Landing Point</t>
+          <t>Forward vision sensor calibration error. Auto calibration in progress</t>
         </is>
       </c>
       <c r="B318" t="n">
@@ -3618,7 +3618,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Low battery voltage. Fly with caution</t>
+          <t>Forward vision sensor error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B319" t="n">
@@ -3628,7 +3628,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Low battery. Recharge promptly</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone. Flight altitude restricted to nnn</t>
         </is>
       </c>
       <c r="B320" t="n">
@@ -3638,7 +3638,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Low battery. Return to home promptly</t>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant). Fly with caution</t>
         </is>
       </c>
       <c r="B321" t="n">
@@ -3648,7 +3648,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Low power, please replace the battery</t>
+          <t>GPS Position Mismatch.</t>
         </is>
       </c>
       <c r="B322" t="n">
@@ -3658,7 +3658,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Low Power. Aircraft is returning to the Home Point.</t>
+          <t>GPS module error. Restart aircraft</t>
         </is>
       </c>
       <c r="B323" t="n">
@@ -3668,7 +3668,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Low Power. Returning home.</t>
+          <t>GPS signal low. Aircraft unable to auto hover and takeoff restricted. Move to environment with adequate light. Unlocking takeoff restrictions not recommended</t>
         </is>
       </c>
       <c r="B324" t="n">
@@ -3678,7 +3678,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Magnetic Filed Interference. Exit P-GPS Mode</t>
+          <t>GPS signal weak. Fly with caution. Aircraft in Altitude Zone. Max altitude set to nnn</t>
         </is>
       </c>
       <c r="B325" t="n">
@@ -3688,7 +3688,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Magnetic Filed Interference. Exit P-GPS Mode. Yaw Error.</t>
+          <t>GPS signal weak. Hovering unstable. Fly with caution</t>
         </is>
       </c>
       <c r="B326" t="n">
@@ -3698,7 +3698,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Manned aircraft approaching. Fly at a safe altitude</t>
+          <t>GPS signal weak. Positioning accuracy affected. Fly with caution</t>
         </is>
       </c>
       <c r="B327" t="n">
@@ -3708,7 +3708,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Manned aircraft detected nearby. Fly with caution</t>
+          <t>Gimbal IMU data error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B328" t="n">
@@ -3718,7 +3718,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Manned aircraft too close. Fly at a safe altitude</t>
+          <t>Gimbal Pitch Limit Reached.</t>
         </is>
       </c>
       <c r="B329" t="n">
@@ -3728,7 +3728,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Max Altitude Approached. Wait for the GPS satellite signal recovery before ascend</t>
+          <t>Gimbal Pitch Reached Movement Limit</t>
         </is>
       </c>
       <c r="B330" t="n">
@@ -3738,7 +3738,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t xml:space="preserve">Max altitude reached (Altitude limit: nnn) </t>
+          <t>Gimbal Recenter</t>
         </is>
       </c>
       <c r="B331" t="n">
@@ -3748,7 +3748,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
+          <t>Gimbal Roll Limit Reached.</t>
         </is>
       </c>
       <c r="B332" t="n">
@@ -3758,7 +3758,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Max Flight Distance Reached. Adjust in Main Controller Settings if necessary.</t>
+          <t>Gimbal Yaw Limit Reached</t>
         </is>
       </c>
       <c r="B333" t="n">
@@ -3768,7 +3768,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Maximum Flight Altitude Reached.</t>
+          <t>Gimbal calibrating</t>
         </is>
       </c>
       <c r="B334" t="n">
@@ -3778,7 +3778,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Maximum Flight Altitude Reached. Adjust altitude in MC Settings if required.</t>
+          <t>Gimbal calibration error. Restart aircraft or contact DJI Support if the issue persists</t>
         </is>
       </c>
       <c r="B335" t="n">
@@ -3788,7 +3788,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Maximum Flight Distance Reached. Adjust distance in MC Settings if required.</t>
+          <t>Gimbal motor overloaded. Check whether gimbal can rotate freely</t>
         </is>
       </c>
       <c r="B336" t="n">
@@ -3798,7 +3798,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>Maximum flight distance reached. Adjust the distance in MC Settings if required.</t>
+          <t>Gimbal nnn pan axis endpoint reached</t>
         </is>
       </c>
       <c r="B337" t="n">
@@ -3808,7 +3808,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Motor error. Check propellers and fly with caution</t>
+          <t>Gimbal nnn pitch axis endpoint reached</t>
         </is>
       </c>
       <c r="B338" t="n">
@@ -3818,7 +3818,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Motor idle. Check whether propellers are installed</t>
+          <t>Gimbal nnn roll axis endpoint reached</t>
         </is>
       </c>
       <c r="B339" t="n">
@@ -3828,7 +3828,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>Motor is Blocked</t>
+          <t>Gimbal stuck. Check whether gimbal lock is removed and ensure gimbal can rotate freely</t>
         </is>
       </c>
       <c r="B340" t="n">
@@ -3838,17 +3838,17 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Motor is Blocked. Motor stuck. Check for objects blocking motor or contact DJI Support for assistance</t>
+          <t>Ground Plain. Safe to Land.</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>Motor is idling (lost or missing propeller)</t>
+          <t>Gyroscope initialization failed. Restart aircraft</t>
         </is>
       </c>
       <c r="B342" t="n">
@@ -3858,7 +3858,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Motor nnn propeller detached or installed incorrectly</t>
+          <t>High Wind Velocity: Fly with caution and ensure the aircraft remains within your line of sight</t>
         </is>
       </c>
       <c r="B343" t="n">
@@ -3868,7 +3868,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Motor Obstructed. Propulsion output is limited to ensure the health of the battery</t>
+          <t>High altitude. Aircraft braking distance increased and flight time decreased. Fly with caution</t>
         </is>
       </c>
       <c r="B344" t="n">
@@ -3878,7 +3878,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>Motor or propeller error. Check the motors and propellers.</t>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution.</t>
         </is>
       </c>
       <c r="B345" t="n">
@@ -3888,7 +3888,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>Motor speed error. Land or return to home promptly. After powering off the aircraft, replace the propeller on the beeping ESC. If the issue persists, contact DJI Support</t>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. Downlink Lost.</t>
         </is>
       </c>
       <c r="B346" t="n">
@@ -3898,7 +3898,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t xml:space="preserve">Motor stuck. Check for objects blocking motor or contact DJI Support for assistance </t>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. High wind velocity. Fly with caution and land in a safe place ASAP.</t>
         </is>
       </c>
       <c r="B347" t="n">
@@ -3908,7 +3908,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t xml:space="preserve">Motor unable to rotate. Check for objects blocking motor or contact DJI Support for assistance </t>
+          <t>High wind velocity. Fly with caution and land in a safe place ASAP.</t>
         </is>
       </c>
       <c r="B348" t="n">
@@ -3918,7 +3918,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Motor unable to rotate. Check motor</t>
+          <t>High wind velocity. Fly with caution.</t>
         </is>
       </c>
       <c r="B349" t="n">
@@ -3928,7 +3928,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>Motors Started.</t>
+          <t>High-altitude flight, aircraft braking distance is extended, flight time is shortened. Fly with caution</t>
         </is>
       </c>
       <c r="B350" t="n">
@@ -3938,7 +3938,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Navigation system error. Restart aircraft</t>
+          <t>Home Point Recorded, Return-to-Home Altitude : 98FT</t>
         </is>
       </c>
       <c r="B351" t="n">
@@ -3948,7 +3948,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>No GPS signal. Aircraft unable to hover. Fly with caution</t>
+          <t>Home Point Recorded, Return-to-Home Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B352" t="n">
@@ -3958,7 +3958,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>No GPS signal. Unable to hover. Fly with caution</t>
+          <t>Home Point Recorded.</t>
         </is>
       </c>
       <c r="B353" t="n">
@@ -3968,7 +3968,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>No GPS signal. Unable to take off. Move to an open area or exit flight tutorial</t>
+          <t>Home Point Recorded. RTH Altitude : 30m.</t>
         </is>
       </c>
       <c r="B354" t="n">
@@ -3978,7 +3978,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>No GPS. Return to Home failed. Return the aircraft to home manually</t>
+          <t>Home Point Recorded. Taking off.</t>
         </is>
       </c>
       <c r="B355" t="n">
@@ -3988,7 +3988,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>No SD card. Insert card</t>
+          <t>Home Point Updated.</t>
         </is>
       </c>
       <c r="B356" t="n">
@@ -3998,7 +3998,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>Not Allowed to change Aircraft Mode. If needed</t>
+          <t>Home Point recorded. Return-to-Home Altitude : 98FT</t>
         </is>
       </c>
       <c r="B357" t="n">
@@ -4008,7 +4008,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>Not Allowed to change Aircraft Mode. If needed, enable it in Main Controller Settings</t>
+          <t>Home Point recorded. Return-to-Home Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B358" t="n">
@@ -4018,7 +4018,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Object too close to laser rangefinder</t>
+          <t>Home Point updated. RTH altitude adjusted to nnn</t>
         </is>
       </c>
       <c r="B359" t="n">
@@ -4028,17 +4028,17 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>Object too far for laser rangefinder</t>
+          <t>IMU attitude restricted. Ensure aircraft is level</t>
         </is>
       </c>
       <c r="B360" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled.</t>
+          <t>IMU calibration required. Calibrate IMU</t>
         </is>
       </c>
       <c r="B361" t="n">
@@ -4048,7 +4048,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance disabled. Fly with caution</t>
+          <t>IMU not calibrated. Calibrate IMU</t>
         </is>
       </c>
       <c r="B362" t="n">
@@ -4058,17 +4058,17 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
+          <t>IMU warming up. Wait before taking off</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance disabled. Landing gear lowered. Obstacle Avoidance has been disabled.</t>
+          <t>Image Transmission Recovered. Aircraft is returning home.</t>
         </is>
       </c>
       <c r="B364" t="n">
@@ -4078,7 +4078,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance will be disabled in landing.</t>
+          <t>Image transmission signal lost</t>
         </is>
       </c>
       <c r="B365" t="n">
@@ -4088,7 +4088,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Obstacle Avoided. Revise Flight Route</t>
+          <t>Impact detected. Aircraft stopped. Restart aircraft</t>
         </is>
       </c>
       <c r="B366" t="n">
@@ -4098,7 +4098,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>Obstacle sensing not available at night. Adjust RTH altitude to above tallest surrounding building before flying</t>
+          <t>Impact detected. Restart aircraft</t>
         </is>
       </c>
       <c r="B367" t="n">
@@ -4108,7 +4108,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>Obstacle Sensing will be disabled when aircraft is landing. Fly with caution.</t>
+          <t>In Flight.</t>
         </is>
       </c>
       <c r="B368" t="n">
@@ -4118,17 +4118,17 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Max altitude and distance set. Fly with caution</t>
+          <t>Incompatible firmware version. Go to Profile &gt; Settings to update firmware</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
+          <t>Insufficient SD card space. Change card or delete files</t>
         </is>
       </c>
       <c r="B370" t="n">
@@ -4138,7 +4138,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn. Fly in a wind-free environment to ensure flight safety</t>
+          <t>Intelligent Flight Modes have not been enabled. Enable this option in Main Controller Settings if needed.</t>
         </is>
       </c>
       <c r="B371" t="n">
@@ -4148,7 +4148,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
+          <t>Landing Canceled.</t>
         </is>
       </c>
       <c r="B372" t="n">
@@ -4158,7 +4158,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>Precision Landing</t>
+          <t>Landing Gear Lowered.</t>
         </is>
       </c>
       <c r="B373" t="n">
@@ -4168,7 +4168,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Precision Landing. Correcting Landing Position.</t>
+          <t>Landing Gear Lowering.</t>
         </is>
       </c>
       <c r="B374" t="n">
@@ -4178,7 +4178,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>Precision Landing. Locating Landing Point</t>
+          <t>Landing Gear Paused.</t>
         </is>
       </c>
       <c r="B375" t="n">
@@ -4188,7 +4188,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>Precision Landing. Rectifying aircraft position.</t>
+          <t>Landing Gear Raised.</t>
         </is>
       </c>
       <c r="B376" t="n">
@@ -4198,7 +4198,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>Propeller Fell Off</t>
+          <t>Landing Gear Raising.</t>
         </is>
       </c>
       <c r="B377" t="n">
@@ -4208,7 +4208,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>Propeller Fell Off. Motor idle. Check whether propellers are installed</t>
+          <t>Landing Gear Raising. Home Point Recorded</t>
         </is>
       </c>
       <c r="B378" t="n">
@@ -4218,7 +4218,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Propeller guard or extra payload detected. Flight performance will be affected. Fly with caution</t>
+          <t>Landing Protection Activated. Aircraft will decelerate during landing.</t>
         </is>
       </c>
       <c r="B379" t="n">
@@ -4228,7 +4228,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>Propeller rotating too fast. Wind resistance affected. Return to home and land promptly. Check whether propeller on beeping ESC is warped or damaged</t>
+          <t>Landing gear function restored</t>
         </is>
       </c>
       <c r="B380" t="n">
@@ -4238,7 +4238,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>Propellers not installed</t>
+          <t>Landing gear lowered. Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B381" t="n">
@@ -4248,7 +4248,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>Propulsion output has been limited to ensure battery health.</t>
+          <t>Landing gear lowered. Obstacle Avoidance has been disabled.</t>
         </is>
       </c>
       <c r="B382" t="n">
@@ -4258,7 +4258,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>Reaching maximum altitude...</t>
+          <t>Landing.</t>
         </is>
       </c>
       <c r="B383" t="n">
@@ -4268,7 +4268,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Recenter Gimbal Pan</t>
+          <t>Large Wind Velocity.</t>
         </is>
       </c>
       <c r="B384" t="n">
@@ -4278,7 +4278,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>Recharge promptly</t>
+          <t>Large Wind Velocity. Fly with caution.</t>
         </is>
       </c>
       <c r="B385" t="n">
@@ -4288,17 +4288,17 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>Rectifying aircraft position</t>
+          <t>Lens not connected</t>
         </is>
       </c>
       <c r="B386" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>Remote controller assisted takeoff initiated.</t>
+          <t>Lighting environment too dark. Vision System unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B387" t="n">
@@ -4308,7 +4308,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>Remote controller battery level low. Recharge promptly</t>
+          <t>Lighting environment too dark. Visual positioning inaccurate. Fly with caution</t>
         </is>
       </c>
       <c r="B388" t="n">
@@ -4318,27 +4318,27 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Remote controller disconnected from aircraft</t>
+          <t>Live stream video frame rate less than 9Hz. Fly with caution</t>
         </is>
       </c>
       <c r="B389" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>Remote controller in high interference environment. Manually adjust flight route or return to home</t>
+          <t>Loading database failed. Geo-awareness function degraded</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>Remote controller signal lost</t>
+          <t>Locating Landing Point</t>
         </is>
       </c>
       <c r="B391" t="n">
@@ -4348,7 +4348,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>Remote controller signal weak. Adjust remote controller antennas</t>
+          <t>Low Power. Aircraft is returning to the Home Point.</t>
         </is>
       </c>
       <c r="B392" t="n">
@@ -4358,7 +4358,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>Restart aircraft</t>
+          <t>Low Power. Returning home.</t>
         </is>
       </c>
       <c r="B393" t="n">
@@ -4368,7 +4368,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Restart aircraft and DJI Fly</t>
+          <t>Low battery voltage. Fly with caution</t>
         </is>
       </c>
       <c r="B394" t="n">
@@ -4378,7 +4378,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>Returning to the Home Point</t>
+          <t>Low battery. Recharge promptly</t>
         </is>
       </c>
       <c r="B395" t="n">
@@ -4388,7 +4388,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 65FT</t>
+          <t>Low battery. Return to home promptly</t>
         </is>
       </c>
       <c r="B396" t="n">
@@ -4398,7 +4398,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 98FT</t>
+          <t>Low power, please replace the battery</t>
         </is>
       </c>
       <c r="B397" t="n">
@@ -4408,7 +4408,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 98FT.</t>
+          <t>Magnetic Filed Interference. Exit P-GPS Mode</t>
         </is>
       </c>
       <c r="B398" t="n">
@@ -4418,7 +4418,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>RTH : Ascending to RTH altitude.</t>
+          <t>Magnetic Filed Interference. Exit P-GPS Mode. Yaw Error.</t>
         </is>
       </c>
       <c r="B399" t="n">
@@ -4428,7 +4428,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>RTH : Cruise.</t>
+          <t>Manned aircraft approaching. Fly at a safe altitude</t>
         </is>
       </c>
       <c r="B400" t="n">
@@ -4438,7 +4438,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>RTH : Preascending.</t>
+          <t>Manned aircraft detected nearby. Fly with caution</t>
         </is>
       </c>
       <c r="B401" t="n">
@@ -4448,7 +4448,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>RTH Altitude : 65FT.</t>
+          <t>Manned aircraft too close. Fly at a safe altitude</t>
         </is>
       </c>
       <c r="B402" t="n">
@@ -4458,7 +4458,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>RTH Altitude : 98FT.</t>
+          <t>Max Altitude Approached. Wait for the GPS satellite signal recovery before ascend</t>
         </is>
       </c>
       <c r="B403" t="n">
@@ -4468,7 +4468,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>RTH Altitude : 98FT. Data Recorder File Index is 1.</t>
+          <t>Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
         </is>
       </c>
       <c r="B404" t="n">
@@ -4478,7 +4478,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>RTH altitude adjusted to nnn</t>
+          <t>Max Flight Distance Reached. Adjust in Main Controller Settings if necessary.</t>
         </is>
       </c>
       <c r="B405" t="n">
@@ -4488,7 +4488,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>RTK signal weak. Move to an open area for takeoff or turn off RTK</t>
+          <t xml:space="preserve">Max altitude reached (Altitude limit: nnn) </t>
         </is>
       </c>
       <c r="B406" t="n">
@@ -4498,7 +4498,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>Running Flight Simulator. Restart aircraft to take off</t>
+          <t>Maximum Flight Altitude Reached.</t>
         </is>
       </c>
       <c r="B407" t="n">
@@ -4508,7 +4508,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>Satellite positioning off. Fly with Caution.</t>
+          <t>Maximum Flight Altitude Reached. Adjust altitude in MC Settings if required.</t>
         </is>
       </c>
       <c r="B408" t="n">
@@ -4518,7 +4518,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>SD card full. Change card or delete files</t>
+          <t>Maximum Flight Distance Reached. Adjust distance in MC Settings if required.</t>
         </is>
       </c>
       <c r="B409" t="n">
@@ -4528,7 +4528,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>SD card malfunction. Change card</t>
+          <t>Maximum flight distance reached. Adjust the distance in MC Settings if required.</t>
         </is>
       </c>
       <c r="B410" t="n">
@@ -4538,37 +4538,37 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>SD card speed low. Change card</t>
+          <t>Min Waypoint Distance: nnn</t>
         </is>
       </c>
       <c r="B411" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>SD card write speed is too slow. Not suitable for shooting a 4K video.</t>
+          <t>Mobile device CPU fully loaded. Related performance will be affected.</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>Sensing system is blocked or too close to the obstacle.</t>
+          <t>Mobile device version too old to support HD image transmission and the image transmission mode has been switch to normal mode.</t>
         </is>
       </c>
       <c r="B413" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Setting new Maximum Flight Altitude to nnn</t>
+          <t>Motor Obstructed. Propulsion output is limited to ensure the health of the battery</t>
         </is>
       </c>
       <c r="B414" t="n">
@@ -4578,7 +4578,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>Setting new Return-To-Home altitude to nnn</t>
+          <t>Motor error. Check propellers and fly with caution</t>
         </is>
       </c>
       <c r="B415" t="n">
@@ -4588,7 +4588,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>Signal Lost. Aircraft returning to Home Point</t>
+          <t>Motor idle. Check whether propellers are installed</t>
         </is>
       </c>
       <c r="B416" t="n">
@@ -4598,7 +4598,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>Strong Aircraft Interference</t>
+          <t>Motor is Blocked</t>
         </is>
       </c>
       <c r="B417" t="n">
@@ -4608,7 +4608,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>Strong Interference Detected. Be careful when flying long distances.</t>
+          <t>Motor is Blocked. Motor stuck. Check for objects blocking motor or contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B418" t="n">
@@ -4618,7 +4618,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Strong Interference Now. Fly with caution.</t>
+          <t>Motor is idling (lost or missing propeller)</t>
         </is>
       </c>
       <c r="B419" t="n">
@@ -4628,7 +4628,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>Strong Interference to Aircraft. Signal interruption may be more likely. Fly with caution.</t>
+          <t>Motor nnn propeller detached or installed incorrectly</t>
         </is>
       </c>
       <c r="B420" t="n">
@@ -4638,17 +4638,17 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>Strong Interference to Remote Controller. Signal interruption maybe more likely. Fly with caution</t>
+          <t>Motor nnn stalled. Land aircraft immediately</t>
         </is>
       </c>
       <c r="B421" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>Strong Interference. Fly with caution.</t>
+          <t>Motor or propeller error. Check the motors and propellers.</t>
         </is>
       </c>
       <c r="B422" t="n">
@@ -4658,7 +4658,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>Strong Remote Controller Interference</t>
+          <t>Motor speed error. Land or return to home promptly. After powering off the aircraft, replace the propeller on the beeping ESC. If the issue persists, contact DJI Support</t>
         </is>
       </c>
       <c r="B423" t="n">
@@ -4668,7 +4668,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>Strong Remote Controller Interference.</t>
+          <t xml:space="preserve">Motor stuck. Check for objects blocking motor or contact DJI Support for assistance </t>
         </is>
       </c>
       <c r="B424" t="n">
@@ -4678,7 +4678,7 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>Strong wind warning. Aircraft unable to fly stably. Lower altitude immediately and manually return to home</t>
+          <t xml:space="preserve">Motor unable to rotate. Check for objects blocking motor or contact DJI Support for assistance </t>
         </is>
       </c>
       <c r="B425" t="n">
@@ -4688,7 +4688,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>Strong wind warning. Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
+          <t>Motor unable to rotate. Check motor</t>
         </is>
       </c>
       <c r="B426" t="n">
@@ -4698,7 +4698,7 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>Strong wind. Fly with caution</t>
+          <t>Motors Started.</t>
         </is>
       </c>
       <c r="B427" t="n">
@@ -4708,7 +4708,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>Strong wireless interference. Please fly with caution.</t>
+          <t>Navigation system error. Restart aircraft</t>
         </is>
       </c>
       <c r="B428" t="n">
@@ -4718,7 +4718,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>Strong wireless interference. Please fly with caution. Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
+          <t>No GPS signal. Aircraft unable to hover. Fly with caution</t>
         </is>
       </c>
       <c r="B429" t="n">
@@ -4728,7 +4728,7 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>Subject too Large. Move Away and retry</t>
+          <t>No GPS signal. Unable to hover. Fly with caution</t>
         </is>
       </c>
       <c r="B430" t="n">
@@ -4738,7 +4738,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>Subject too Small. Get Closer and retry</t>
+          <t>No GPS signal. Unable to take off. Move to an open area or exit flight tutorial</t>
         </is>
       </c>
       <c r="B431" t="n">
@@ -4748,7 +4748,7 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>Switched to A (Attitude)-mode</t>
+          <t>No GPS. Return to Home failed. Return the aircraft to home manually</t>
         </is>
       </c>
       <c r="B432" t="n">
@@ -4758,7 +4758,7 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>Switched to P (Positioning)-mode.</t>
+          <t>No SD card. Insert card</t>
         </is>
       </c>
       <c r="B433" t="n">
@@ -4768,7 +4768,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>Switched to S (Sport)-mode.</t>
+          <t>Not Allowed to change Aircraft Mode. If needed</t>
         </is>
       </c>
       <c r="B434" t="n">
@@ -4778,7 +4778,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>Switched to T (Tripod)-mode.</t>
+          <t>Not Allowed to change Aircraft Mode. If needed, enable it in Main Controller Settings</t>
         </is>
       </c>
       <c r="B435" t="n">
@@ -4788,17 +4788,17 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>Take off and retry this function.</t>
+          <t>Not Enough Force/ESC Error</t>
         </is>
       </c>
       <c r="B436" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>Take off in P-Mode</t>
+          <t>Object too close to laser rangefinder</t>
         </is>
       </c>
       <c r="B437" t="n">
@@ -4808,7 +4808,7 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>Taking Off.</t>
+          <t>Object too far for laser rangefinder</t>
         </is>
       </c>
       <c r="B438" t="n">
@@ -4818,7 +4818,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>Tap Fly Flight Ended. Landing Gear Lowered</t>
+          <t>Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B439" t="n">
@@ -4828,7 +4828,7 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>The aircraft is flying back to the start point</t>
+          <t>Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B440" t="n">
@@ -4838,7 +4838,7 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>The flight attitude angle is larger in Sport mode. The gimbal will rotate when the aircraft starts or stops. Use Normal mode if required for stable shooting</t>
+          <t>Obstacle Avoidance disabled. Fly with caution</t>
         </is>
       </c>
       <c r="B441" t="n">
@@ -4848,7 +4848,7 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>The remaining battery is only enough for RTH. Return home now.</t>
+          <t>Obstacle Avoidance disabled. Landing gear lowered. Obstacle Avoidance has been disabled.</t>
         </is>
       </c>
       <c r="B442" t="n">
@@ -4858,7 +4858,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>Tip: Aircraft reached maximum distance, please pay attention to flight safety</t>
+          <t>Obstacle Avoidance will be disabled in landing.</t>
         </is>
       </c>
       <c r="B443" t="n">
@@ -4868,7 +4868,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>To take off in non-P mode, toggle Flight Mode Switch to another mode and then toggle it back.</t>
+          <t>Obstacle Avoided. Revise Flight Route</t>
         </is>
       </c>
       <c r="B444" t="n">
@@ -4878,7 +4878,7 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>Unable to take off</t>
+          <t>Obstacle Sensing will be disabled when aircraft is landing. Fly with caution.</t>
         </is>
       </c>
       <c r="B445" t="n">
@@ -4888,7 +4888,7 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>Unable to take off in low light environment. Ensure there are no metal and magnetic objects near the aircraft and calibrate compass</t>
+          <t>Obstacle sensing not available at night. Adjust RTH altitude to above tallest surrounding building before flying</t>
         </is>
       </c>
       <c r="B446" t="n">
@@ -4898,47 +4898,47 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>Unknown Error, Cannot Takeoff. Contact DJI support</t>
+          <t>PalmControl in Process</t>
         </is>
       </c>
       <c r="B447" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>Vision sensor error. Contact DJI Support for assistance</t>
+          <t>Pano shooting completed. The sky part is filled automatically</t>
         </is>
       </c>
       <c r="B448" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>Vision sensor(s) blocked. Fly with caution</t>
+          <t>Pano successful</t>
         </is>
       </c>
       <c r="B449" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>Vision systems and obstacle avoidance disabled</t>
+          <t>Panorama Captured Successfully</t>
         </is>
       </c>
       <c r="B450" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>Visual positioning inaccurate. Fly with caution</t>
+          <t>Payload mode enabled. Max altitude and distance set. Fly with caution</t>
         </is>
       </c>
       <c r="B451" t="n">
@@ -4948,7 +4948,7 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>Warning. The remaining battery is only enough for RTH. Return home now.</t>
+          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
         </is>
       </c>
       <c r="B452" t="n">
@@ -4958,7 +4958,7 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>Warning: Aircraft is less than nnn (minimum) away from the object below</t>
+          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn. Fly in a wind-free environment to ensure flight safety</t>
         </is>
       </c>
       <c r="B453" t="n">
@@ -4968,7 +4968,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>Warning: Battery Temperature Below 15°C (59F). Warm battery to above 25°C (77F) before flying</t>
+          <t>Payload mode enabled. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
         </is>
       </c>
       <c r="B454" t="n">
@@ -4978,7 +4978,7 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>Warning: Command Failed</t>
+          <t>Precision Landing</t>
         </is>
       </c>
       <c r="B455" t="n">
@@ -4988,7 +4988,7 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>Warning: Command Timeout</t>
+          <t>Precision Landing. Correcting Landing Position.</t>
         </is>
       </c>
       <c r="B456" t="n">
@@ -4998,7 +4998,7 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>Warning: Critically low battery. Please change the battery</t>
+          <t>Precision Landing. Locating Landing Point</t>
         </is>
       </c>
       <c r="B457" t="n">
@@ -5008,7 +5008,7 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>Warning: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
+          <t>Precision Landing. Rectifying aircraft position.</t>
         </is>
       </c>
       <c r="B458" t="n">
@@ -5018,7 +5018,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>Warning: Motor Obstructed</t>
+          <t>Propeller Fell Off</t>
         </is>
       </c>
       <c r="B459" t="n">
@@ -5028,7 +5028,7 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>Warning: Motor Overloaded. Aircraft will decelerate to ensure safety</t>
+          <t>Propeller Fell Off. Motor idle. Check whether propellers are installed</t>
         </is>
       </c>
       <c r="B460" t="n">
@@ -5038,17 +5038,17 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>Weak GPS signal. Aircraft is in Attitude mode and hovering may be unstable. Fly with caution.</t>
+          <t>Propeller Guard Mounted Propeller Guard mounted. Forward Obstacle Sensing will be automatically switched off</t>
         </is>
       </c>
       <c r="B461" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>Weak GPS signal. Positioning accuracy may be compromised. Please fly with caution</t>
+          <t>Propeller guard or extra payload detected. Flight performance will be affected. Fly with caution</t>
         </is>
       </c>
       <c r="B462" t="n">
@@ -5058,7 +5058,7 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>Weak image transmission signal. Adjust antennas</t>
+          <t>Propeller rotating too fast. Wind resistance affected. Return to home and land promptly. Check whether propeller on beeping ESC is warped or damaged</t>
         </is>
       </c>
       <c r="B463" t="n">
@@ -5068,7 +5068,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>Weak signal. Adjust antenna and avoid signal block.</t>
+          <t>Propellers not installed</t>
         </is>
       </c>
       <c r="B464" t="n">
@@ -5078,7 +5078,7 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>Weak signal. Adjust antennas</t>
+          <t>Propulsion output has been limited to ensure battery health.</t>
         </is>
       </c>
       <c r="B465" t="n">
@@ -5088,17 +5088,17 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>Weak signal. Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight.</t>
+          <t>QuickShot has ended</t>
         </is>
       </c>
       <c r="B466" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>Weak signal. Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight. Downlink Lost.</t>
+          <t>RTH : Ascending to RTH altitude.</t>
         </is>
       </c>
       <c r="B467" t="n">
@@ -5108,7 +5108,7 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>Weak signal. Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
+          <t>RTH : Cruise.</t>
         </is>
       </c>
       <c r="B468" t="n">
@@ -5118,17 +5118,17 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>Yaw Error.</t>
+          <t>RTH : Heading alignment.</t>
         </is>
       </c>
       <c r="B469" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>Your aircraft has entered a Warning Zone (Class D). Please fly with caution.</t>
+          <t>RTH : Preascending.</t>
         </is>
       </c>
       <c r="B470" t="n">
@@ -5138,7 +5138,7 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>Your aircraft is at the boundary of an Altitude Zone. Please fly away or land with caution</t>
+          <t>RTH Altitude : 65FT.</t>
         </is>
       </c>
       <c r="B471" t="n">
@@ -5148,7 +5148,7 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>Your aircraft is at the boundary of an Authorization Zone. Please fly away with caution</t>
+          <t>RTH Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B472" t="n">
@@ -5158,7 +5158,7 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>Your aircraft is flying in an Altitude Zone (nnn). Please fly with caution</t>
+          <t>RTH Altitude : 98FT. Data Recorder File Index is 1.</t>
         </is>
       </c>
       <c r="B473" t="n">
@@ -5168,7 +5168,7 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>Your palm is too close to the aircraft. Please step farther away.</t>
+          <t>RTH altitude adjusted to nnn</t>
         </is>
       </c>
       <c r="B474" t="n">
@@ -5178,1111 +5178,1111 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>Your palm is too far away from the aircraft. Please step closer.</t>
+          <t>RTK Base Station Data Not Received</t>
         </is>
       </c>
       <c r="B475" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>Accelerator is Over Range</t>
+          <t>RTK Base Station Data Not Received. Please make sure base station antenna is connected to the correct port</t>
         </is>
       </c>
       <c r="B476" t="n">
-        <v>1</v>
+        <v>54</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>Account not logged in. Flight altitude and distance restricted to nnn and nnn. Check and log in</t>
+          <t>RTK signal weak. Move to an open area for takeoff or turn off RTK</t>
         </is>
       </c>
       <c r="B477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>AE Locked. Metering disabled</t>
+          <t>Reaching maximum altitude...</t>
         </is>
       </c>
       <c r="B478" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed. Obstacle Avoidance is not available</t>
+          <t>Recenter Gimbal Pan</t>
         </is>
       </c>
       <c r="B479" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed. When exceeding nnn, Obstacle Avoidance is not available</t>
+          <t>Recharge promptly</t>
         </is>
       </c>
       <c r="B480" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack max speed of nnn and Obstacle Avoidance functions normally</t>
+          <t>Rectifying aircraft position</t>
         </is>
       </c>
       <c r="B481" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack max speed of nnn. Left and right Obstacle Sensing systems are available</t>
+          <t>Remote Controller Right Dial Locked. Lightly press it to adjust.</t>
         </is>
       </c>
       <c r="B482" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>Aircraft entered Fixed-Wing Mode. Current flight speed is nnn. Press C2 to exit</t>
+          <t>Remote ID error. Connect to network to obtain mobile device location. Flying without broadcasting required remote ID messages may violate local regulations</t>
         </is>
       </c>
       <c r="B483" t="n">
-        <v>5</v>
+        <v>51</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>Entered Cruise Control mode. Press C1 or C2 to exit</t>
+          <t>Remote ID functionality normal</t>
         </is>
       </c>
       <c r="B484" t="n">
-        <v>5</v>
+        <v>52</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>Exited Cruise Control mode</t>
+          <t>Remote controller assisted takeoff initiated.</t>
         </is>
       </c>
       <c r="B485" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>Aircraft is in QuickShot Mode. Ensure your enviornment is free of potential obstacles.</t>
+          <t>Remote controller battery level low. Recharge promptly</t>
         </is>
       </c>
       <c r="B486" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>Aircraft not linked to phone number. Flight range restricted. Check and link phone number</t>
+          <t>Remote controller disconnected from aircraft</t>
         </is>
       </c>
       <c r="B487" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>Aircraft settings updated to comply with national regulations</t>
+          <t>Remote controller in high interference environment. Manually adjust flight route or return to home</t>
         </is>
       </c>
       <c r="B488" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>APAS has been enabled</t>
+          <t>Remote controller signal lost</t>
         </is>
       </c>
       <c r="B489" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>Approaching NFZ or pre-set distance limit of (nnn). Revise Flight Route</t>
+          <t>Remote controller signal weak. Adjust remote controller antennas</t>
         </is>
       </c>
       <c r="B490" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>Arrived at destination</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="B491" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>Arrived at End Point</t>
+          <t>Restart aircraft and DJI Fly</t>
         </is>
       </c>
       <c r="B492" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>Arrived at Start Point. Starting Waypoint Mission</t>
+          <t>Return-to-Home Altitude : 65FT</t>
         </is>
       </c>
       <c r="B493" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>Executing waypoint mission</t>
+          <t>Return-to-Home Altitude : 98FT</t>
         </is>
       </c>
       <c r="B494" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>Waypoint Mission Paused</t>
+          <t>Return-to-Home Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B495" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>Waypoint Mission Resumed</t>
+          <t>Returning to the Home Point</t>
         </is>
       </c>
       <c r="B496" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>Waypoint Mission Start</t>
+          <t>Right Dial Locked. Lightly press to adjust.</t>
         </is>
       </c>
       <c r="B497" t="n">
-        <v>12</v>
+        <v>50</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>At least two Waypoints are needed</t>
+          <t>Running Flight Simulator. Restart aircraft to take off</t>
         </is>
       </c>
       <c r="B498" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>At Least Two Waypoints Required</t>
+          <t>SD card full. Change card or delete files</t>
         </is>
       </c>
       <c r="B499" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>Auxiliary Bottom Light set to automatic mode</t>
+          <t>SD card malfunction. Change card</t>
         </is>
       </c>
       <c r="B500" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>Auxiliary Bottom Light turned off</t>
+          <t>SD card speed low. Change card</t>
         </is>
       </c>
       <c r="B501" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>Auxiliary Bottom Light turned on</t>
+          <t>SD card write speed is too slow. Not suitable for shooting a 4K video.</t>
         </is>
       </c>
       <c r="B502" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>Barometer Dead in Air</t>
+          <t>Satellite positioning off. Fly with Caution.</t>
         </is>
       </c>
       <c r="B503" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>Braking now! No use to move the stick right. Avoid the obstacle</t>
+          <t>Sensing system is blocked or too close to the obstacle.</t>
         </is>
       </c>
       <c r="B504" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>Braking now! Return sticks to midpoints first.</t>
+          <t>Set Flight Mode to GPS to fly safe</t>
         </is>
       </c>
       <c r="B505" t="n">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>Braking now. Return sticks to midpoints, then continue flying.</t>
+          <t>Setting new Maximum Flight Altitude to nnn</t>
         </is>
       </c>
       <c r="B506" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>Cache Space Full</t>
+          <t>Setting new Return-To-Home altitude to nnn</t>
         </is>
       </c>
       <c r="B507" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>Video cache has stopped because there is not enough storage space. You can enable Auto Cache Clear or manually delete cache to get enough space</t>
+          <t>Signal Lost. Aircraft returning to Home Point</t>
         </is>
       </c>
       <c r="B508" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>Calibration subject is too close. Recalibrate using a subject that is farther away</t>
+          <t>Sprayer turned OFF, sprayed nnn at nnn liters/min</t>
         </is>
       </c>
       <c r="B509" t="n">
-        <v>18</v>
+        <v>56</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>Calibration target not far away enough. Please calibrate using infinity</t>
+          <t>Sprayer turned ON</t>
         </is>
       </c>
       <c r="B510" t="n">
-        <v>19</v>
+        <v>56</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>Camera busy, cannot enter playback</t>
+          <t>Starting Smart Track</t>
         </is>
       </c>
       <c r="B511" t="n">
-        <v>20</v>
+        <v>57</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>Cannot exit ActiveTrack</t>
+          <t>Strong Aircraft Interference</t>
         </is>
       </c>
       <c r="B512" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>Cannot send ActiveTrack command</t>
+          <t>Strong Interference Detected. Be careful when flying long distances.</t>
         </is>
       </c>
       <c r="B513" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>Cannot start Self-Timer. Exposure time is too long</t>
+          <t>Strong Interference Now. Fly with caution.</t>
         </is>
       </c>
       <c r="B514" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>Capture Failed Shooting interrupted</t>
+          <t>Strong Interference to Aircraft. Signal interruption may be more likely. Fly with caution.</t>
         </is>
       </c>
       <c r="B515" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>Capture Failed. Shooting is currently not permitted</t>
+          <t>Strong Interference to Remote Controller. Signal interruption maybe more likely. Fly with caution</t>
         </is>
       </c>
       <c r="B516" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>Color display in Liveview is enhanced. Videos and photos will still be shot in D-Log mode</t>
+          <t>Strong Interference. Fly with caution.</t>
         </is>
       </c>
       <c r="B517" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>Color display in the Liveview has been enhanced. Videos and photos will still be shot in D-Log mode</t>
+          <t>Strong Remote Controller Interference</t>
         </is>
       </c>
       <c r="B518" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>CrystalSky is too hot. Cool down the monitor to prevent overheating</t>
+          <t>Strong Remote Controller Interference.</t>
         </is>
       </c>
       <c r="B519" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 12.</t>
+          <t>Strong wind warning. Aircraft unable to fly stably. Lower altitude immediately and manually return to home</t>
         </is>
       </c>
       <c r="B520" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 13.</t>
+          <t>Strong wind warning. Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="B521" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 15.</t>
+          <t>Strong wind. Fly with caution</t>
         </is>
       </c>
       <c r="B522" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 17.</t>
+          <t>Strong wireless interference. Please fly with caution.</t>
         </is>
       </c>
       <c r="B523" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 18.</t>
+          <t>Strong wireless interference. Please fly with caution. Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B524" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 19.</t>
+          <t>Subject lost. Reselect subject</t>
         </is>
       </c>
       <c r="B525" t="n">
-        <v>26</v>
+        <v>58</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 2.</t>
+          <t>Subject lost. Searching …</t>
         </is>
       </c>
       <c r="B526" t="n">
-        <v>26</v>
+        <v>58</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 21.</t>
+          <t>Subject too Large. Move Away and retry</t>
         </is>
       </c>
       <c r="B527" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 29.</t>
+          <t>Subject too Small. Get Closer and retry</t>
         </is>
       </c>
       <c r="B528" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 3.</t>
+          <t>Switched to A (Attitude)-mode</t>
         </is>
       </c>
       <c r="B529" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 30.</t>
+          <t>Switched to P (Positioning)-mode.</t>
         </is>
       </c>
       <c r="B530" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 4.</t>
+          <t>Switched to S (Sport)-mode.</t>
         </is>
       </c>
       <c r="B531" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 45.</t>
+          <t>Switched to T (Tripod)-mode.</t>
         </is>
       </c>
       <c r="B532" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 46.</t>
+          <t>Switched to gimbal free mode. Use the RC to control aircraft yaw</t>
         </is>
       </c>
       <c r="B533" t="n">
-        <v>26</v>
+        <v>59</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 5.</t>
+          <t>Take off and retry this function.</t>
         </is>
       </c>
       <c r="B534" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 57.</t>
+          <t>Take off in P-Mode</t>
         </is>
       </c>
       <c r="B535" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 65.</t>
+          <t>Taking Off.</t>
         </is>
       </c>
       <c r="B536" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 7.</t>
+          <t>Tap Fly Flight Ended. Landing Gear Lowered</t>
         </is>
       </c>
       <c r="B537" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 8.</t>
+          <t>Tap the screen lightly to focus.</t>
         </is>
       </c>
       <c r="B538" t="n">
-        <v>26</v>
+        <v>60</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>Descending. Exited Visual Avoidance System</t>
+          <t>Tap the screen to focus.</t>
         </is>
       </c>
       <c r="B539" t="n">
-        <v>27</v>
+        <v>60</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>Exited Visual Avoidance System.</t>
+          <t>Tap to choose a valid zone.</t>
         </is>
       </c>
       <c r="B540" t="n">
-        <v>27</v>
+        <v>61</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>Drag a box around or tap a target on screen. Then tap Go.</t>
+          <t>Target lost. QuickShots stopped</t>
         </is>
       </c>
       <c r="B541" t="n">
-        <v>28</v>
+        <v>49</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>Drone is Vibrating</t>
+          <t>The aircraft is flying back to the start point</t>
         </is>
       </c>
       <c r="B542" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>During Smart Track, you can control lens zoom within a certain limit</t>
+          <t>The flight attitude angle is larger in Sport mode. The gimbal will rotate when the aircraft starts or stops. Use Normal mode if required for stable shooting</t>
         </is>
       </c>
       <c r="B543" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>EMMC is full</t>
+          <t>The remaining battery is only enough for RTH. Return home now.</t>
         </is>
       </c>
       <c r="B544" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>Flight height too low</t>
+          <t>Tip: Aircraft reached maximum distance, please pay attention to flight safety</t>
         </is>
       </c>
       <c r="B545" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>Ground Plain. Safe to Land.</t>
+          <t>Tip: Only the first camera can tap-zoom in dual gimbal control mode</t>
         </is>
       </c>
       <c r="B546" t="n">
-        <v>33</v>
+        <v>62</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>IMU attitude restricted. Ensure aircraft is level</t>
+          <t>Tip: When multi-gimbals are controlled together, only the first gimbal spotlight feature is available</t>
         </is>
       </c>
       <c r="B547" t="n">
-        <v>34</v>
+        <v>62</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>IMU warming up. Wait before taking off</t>
+          <t>To take off in non-P mode, toggle Flight Mode Switch to another mode and then toggle it back.</t>
         </is>
       </c>
       <c r="B548" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>Incompatible firmware version. Go to Profile &gt; Settings to update firmware</t>
+          <t>Unable to take off</t>
         </is>
       </c>
       <c r="B549" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>Lens not connected</t>
+          <t>Unable to take off in low light environment. Ensure there are no metal and magnetic objects near the aircraft and calibrate compass</t>
         </is>
       </c>
       <c r="B550" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>Live stream video frame rate less than 9Hz. Fly with caution</t>
+          <t>Unknown Error, Cannot Takeoff. Contact DJI support</t>
         </is>
       </c>
       <c r="B551" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>Loading database failed. Geo-awareness function degraded</t>
+          <t>Upward Obstacle Detected</t>
         </is>
       </c>
       <c r="B552" t="n">
-        <v>39</v>
+        <v>63</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>Min Waypoint Distance: nnn</t>
+          <t>Video cache has stopped because there is not enough storage space. You can enable Auto Cache Clear or manually delete cache to get enough space</t>
         </is>
       </c>
       <c r="B553" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>Mobile device CPU fully loaded. Related performance will be affected.</t>
+          <t>Vision sensor error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B554" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>Mobile device version too old to support HD image transmission and the image transmission mode has been switch to normal mode.</t>
+          <t>Vision sensor(s) blocked. Fly with caution</t>
         </is>
       </c>
       <c r="B555" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>Motor nnn stalled. Land aircraft immediately</t>
+          <t>Vision systems and obstacle avoidance disabled</t>
         </is>
       </c>
       <c r="B556" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>Not Enough Force/ESC Error</t>
+          <t>Visual positioning inaccurate. Fly with caution</t>
         </is>
       </c>
       <c r="B557" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>PalmControl in Process</t>
+          <t>Warning</t>
         </is>
       </c>
       <c r="B558" t="n">
-        <v>45</v>
+        <v>64</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>Pano shooting completed. The sky part is filled automatically</t>
+          <t>Warning. The remaining battery is only enough for RTH. Return home now.</t>
         </is>
       </c>
       <c r="B559" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>Pano successful</t>
+          <t>Warning: Aircraft is less than nnn (minimum) away from the object below</t>
         </is>
       </c>
       <c r="B560" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>Panorama Captured Successfully</t>
+          <t>Warning: Battery Temperature Below 15°C (59F). Warm battery to above 25°C (77F) before flying</t>
         </is>
       </c>
       <c r="B561" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>Propeller Guard Mounted Propeller Guard mounted. Forward Obstacle Sensing will be automatically switched off</t>
+          <t>Warning: Command Failed</t>
         </is>
       </c>
       <c r="B562" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>QuickShot has ended</t>
+          <t>Warning: Command Timeout</t>
         </is>
       </c>
       <c r="B563" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>Target lost. QuickShots stopped</t>
+          <t>Warning: Critically low battery. Please change the battery</t>
         </is>
       </c>
       <c r="B564" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>Remote Controller Right Dial Locked. Lightly press it to adjust.</t>
+          <t>Warning: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
         </is>
       </c>
       <c r="B565" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>Right Dial Locked. Lightly press to adjust.</t>
+          <t>Warning: Motor Obstructed</t>
         </is>
       </c>
       <c r="B566" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>Remote ID error. Connect to network to obtain mobile device location. Flying without broadcasting required remote ID messages may violate local regulations</t>
+          <t>Warning: Motor Overloaded. Aircraft will decelerate to ensure safety</t>
         </is>
       </c>
       <c r="B567" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>Remote ID functionality normal</t>
+          <t>Waypoint Mission Paused</t>
         </is>
       </c>
       <c r="B568" t="n">
-        <v>52</v>
+        <v>12</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>RTH : Heading alignment.</t>
+          <t>Waypoint Mission Resumed</t>
         </is>
       </c>
       <c r="B569" t="n">
-        <v>53</v>
+        <v>12</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>RTK Base Station Data Not Received</t>
+          <t>Waypoint Mission Start</t>
         </is>
       </c>
       <c r="B570" t="n">
-        <v>54</v>
+        <v>12</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>RTK Base Station Data Not Received. Please make sure base station antenna is connected to the correct port</t>
+          <t>Weak GPS signal. Aircraft is in Attitude mode and hovering may be unstable. Fly with caution.</t>
         </is>
       </c>
       <c r="B571" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>Set Flight Mode to GPS to fly safe</t>
+          <t>Weak GPS signal. Positioning accuracy may be compromised. Please fly with caution</t>
         </is>
       </c>
       <c r="B572" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>Sprayer turned OFF, sprayed nnn at nnn liters/min</t>
+          <t>Weak image transmission signal. Adjust antennas</t>
         </is>
       </c>
       <c r="B573" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>Sprayer turned ON</t>
+          <t>Weak signal. Adjust antenna and avoid signal block.</t>
         </is>
       </c>
       <c r="B574" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>Starting Smart Track</t>
+          <t>Weak signal. Adjust antennas</t>
         </is>
       </c>
       <c r="B575" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>Subject lost. Reselect subject</t>
+          <t>Weak signal. Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight.</t>
         </is>
       </c>
       <c r="B576" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>Subject lost. Searching …</t>
+          <t>Weak signal. Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight. Downlink Lost.</t>
         </is>
       </c>
       <c r="B577" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>Switched to gimbal free mode. Use the RC to control aircraft yaw</t>
+          <t>Weak signal. Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
         </is>
       </c>
       <c r="B578" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>Tap the screen lightly to focus.</t>
+          <t>Yaw Error.</t>
         </is>
       </c>
       <c r="B579" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>Tap the screen to focus.</t>
+          <t>Your aircraft has entered a Warning Zone (Class D). Please fly with caution.</t>
         </is>
       </c>
       <c r="B580" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>Tap to choose a valid zone.</t>
+          <t>Your aircraft is at the boundary of an Altitude Zone. Please fly away or land with caution</t>
         </is>
       </c>
       <c r="B581" t="n">
-        <v>61</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>Tip: Only the first camera can tap-zoom in dual gimbal control mode</t>
+          <t>Your aircraft is at the boundary of an Authorization Zone. Please fly away with caution</t>
         </is>
       </c>
       <c r="B582" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>Tip: When multi-gimbals are controlled together, only the first gimbal spotlight feature is available</t>
+          <t>Your aircraft is flying in an Altitude Zone (nnn). Please fly with caution</t>
         </is>
       </c>
       <c r="B583" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>Upward Obstacle Detected</t>
+          <t>Your palm is too close to the aircraft. Please step farther away.</t>
         </is>
       </c>
       <c r="B584" t="n">
-        <v>63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>Warning</t>
+          <t>Your palm is too far away from the aircraft. Please step closer.</t>
         </is>
       </c>
       <c r="B585" t="n">
-        <v>64</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
